--- a/query_result.xlsx
+++ b/query_result.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
     <sheet name="Графики" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tablib Dataset'!$A$1:$V$179</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tablib Dataset'!$A$1:$V$182</definedName>
   </definedNames>
   <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="215">
   <si>
     <t>category_id</t>
   </si>
@@ -670,6 +670,12 @@
   </si>
   <si>
     <t>Доля моделей, у которых есть что показать в top6</t>
+  </si>
+  <si>
+    <t>ИТОГ (без "Наручные часы", "Матрасы" и "Смесители")</t>
+  </si>
+  <si>
+    <t>ИТОГ (сумма только "Наручные часы", "Матрасы" и "Смесители")</t>
   </si>
 </sst>
 </file>
@@ -886,7 +892,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Елки искусственные</c:v>
+              <c:v>ИТОГ (без "Наручные часы", "Матрасы" и "Смесители")</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -1044,22 +1050,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>652.0</c:v>
+                  <c:v>71345.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>148.0</c:v>
+                  <c:v>9653.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>199.0</c:v>
+                  <c:v>12228.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>336.0</c:v>
+                  <c:v>17099.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>519.0</c:v>
+                  <c:v>28682.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>601.0</c:v>
+                  <c:v>54585.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1181,22 +1187,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>91.0</c:v>
+                  <c:v>29429.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.0</c:v>
+                  <c:v>3829.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.0</c:v>
+                  <c:v>5487.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80.0</c:v>
+                  <c:v>7941.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>112.0</c:v>
+                  <c:v>15383.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>432.0</c:v>
+                  <c:v>31439.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1318,22 +1324,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>91.0</c:v>
+                  <c:v>29429.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.0</c:v>
+                  <c:v>3829.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.0</c:v>
+                  <c:v>5487.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>796.0</c:v>
+                  <c:v>52324.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>559.0</c:v>
+                  <c:v>35115.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>920.0</c:v>
+                  <c:v>67408.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1350,11 +1356,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="-514904080"/>
-        <c:axId val="22682480"/>
+        <c:axId val="-1896404512"/>
+        <c:axId val="-1896399232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-514904080"/>
+        <c:axId val="-1896404512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,7 +1417,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22682480"/>
+        <c:crossAx val="-1896399232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1419,7 +1425,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22682480"/>
+        <c:axId val="-1896399232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,7 +1435,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-514904080"/>
+        <c:crossAx val="-1896404512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1668,13 +1674,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.915020499440924</c:v>
+                  <c:v>0.80162982716213</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.299664554603056</c:v>
+                  <c:v>0.387199893994981</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.915020499440924</c:v>
+                  <c:v>0.80162982716213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1691,11 +1697,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="-615216480"/>
-        <c:axId val="-518347120"/>
+        <c:axId val="-1897063024"/>
+        <c:axId val="-1897055904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-615216480"/>
+        <c:axId val="-1897063024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1752,7 +1758,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-518347120"/>
+        <c:crossAx val="-1897055904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1760,18 +1766,21 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-518347120"/>
+        <c:axId val="-1897055904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-615216480"/>
+        <c:crossAx val="-1897063024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3277,7 +3286,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V180"/>
+  <dimension ref="A1:V182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -15466,7 +15475,7 @@
         <v>205</v>
       </c>
       <c r="D180" s="8">
-        <f t="shared" ref="D180:V180" si="0">SUM(D2:D179)</f>
+        <f t="shared" ref="D180:V182" si="0">SUM(D2:D179)</f>
         <v>683650</v>
       </c>
       <c r="E180" s="8">
@@ -15542,7 +15551,170 @@
         <v>195786</v>
       </c>
     </row>
+    <row r="181" spans="1:22" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B181" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D181" s="8">
+        <f>SUMIFS(D:D,$A:$A,"&lt;&gt;",$B:$B,"&lt;&gt;Наручные часы",$B:$B,"&lt;&gt;Матрасы",$B:$B,"&lt;&gt;Смесители")</f>
+        <v>241498</v>
+      </c>
+      <c r="E181" s="8">
+        <f t="shared" ref="E181:V181" si="1">SUMIFS(E:E,$A:$A,"&lt;&gt;",$B:$B,"&lt;&gt;Наручные часы",$B:$B,"&lt;&gt;Матрасы",$B:$B,"&lt;&gt;Смесители")</f>
+        <v>71345</v>
+      </c>
+      <c r="F181" s="8">
+        <f t="shared" si="1"/>
+        <v>9653</v>
+      </c>
+      <c r="G181" s="8">
+        <f t="shared" si="1"/>
+        <v>12228</v>
+      </c>
+      <c r="H181" s="8">
+        <f t="shared" si="1"/>
+        <v>17099</v>
+      </c>
+      <c r="I181" s="8">
+        <f t="shared" si="1"/>
+        <v>28682</v>
+      </c>
+      <c r="J181" s="8">
+        <f t="shared" si="1"/>
+        <v>54585</v>
+      </c>
+      <c r="K181" s="8">
+        <f t="shared" si="1"/>
+        <v>29429</v>
+      </c>
+      <c r="L181" s="8">
+        <f t="shared" si="1"/>
+        <v>3829</v>
+      </c>
+      <c r="M181" s="8">
+        <f t="shared" si="1"/>
+        <v>5487</v>
+      </c>
+      <c r="N181" s="8">
+        <f t="shared" si="1"/>
+        <v>7941</v>
+      </c>
+      <c r="O181" s="8">
+        <f t="shared" si="1"/>
+        <v>15383</v>
+      </c>
+      <c r="P181" s="8">
+        <f t="shared" si="1"/>
+        <v>31439</v>
+      </c>
+      <c r="Q181" s="8">
+        <f t="shared" si="1"/>
+        <v>29429</v>
+      </c>
+      <c r="R181" s="8">
+        <f t="shared" si="1"/>
+        <v>3829</v>
+      </c>
+      <c r="S181" s="8">
+        <f t="shared" si="1"/>
+        <v>5487</v>
+      </c>
+      <c r="T181" s="8">
+        <f t="shared" si="1"/>
+        <v>52324</v>
+      </c>
+      <c r="U181" s="8">
+        <f t="shared" si="1"/>
+        <v>35115</v>
+      </c>
+      <c r="V181" s="8">
+        <f t="shared" si="1"/>
+        <v>67408</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B182" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D182" s="8">
+        <f>SUMIFS(D:D,$A:$A,"&lt;&gt;",$B:$B,"Наручные часы")+SUMIFS(D:D,$A:$A,"&lt;&gt;",$B:$B,"Матрасы")+SUMIFS(D:D,$A:$A,"&lt;&gt;",$B:$B,"Смесители")</f>
+        <v>442152</v>
+      </c>
+      <c r="E182" s="8">
+        <f t="shared" ref="E182:V182" si="2">SUMIFS(E:E,$A:$A,"&lt;&gt;",$B:$B,"Наручные часы")+SUMIFS(E:E,$A:$A,"&lt;&gt;",$B:$B,"Матрасы")+SUMIFS(E:E,$A:$A,"&lt;&gt;",$B:$B,"Смесители")</f>
+        <v>50475</v>
+      </c>
+      <c r="F182" s="8">
+        <f t="shared" si="2"/>
+        <v>8689</v>
+      </c>
+      <c r="G182" s="8">
+        <f t="shared" si="2"/>
+        <v>12663</v>
+      </c>
+      <c r="H182" s="8">
+        <f t="shared" si="2"/>
+        <v>21678</v>
+      </c>
+      <c r="I182" s="8">
+        <f t="shared" si="2"/>
+        <v>44242</v>
+      </c>
+      <c r="J182" s="8">
+        <f t="shared" si="2"/>
+        <v>81084</v>
+      </c>
+      <c r="K182" s="8">
+        <f t="shared" si="2"/>
+        <v>6107</v>
+      </c>
+      <c r="L182" s="8">
+        <f t="shared" si="2"/>
+        <v>3769</v>
+      </c>
+      <c r="M182" s="8">
+        <f t="shared" si="2"/>
+        <v>5775</v>
+      </c>
+      <c r="N182" s="8">
+        <f t="shared" si="2"/>
+        <v>8032</v>
+      </c>
+      <c r="O182" s="8">
+        <f t="shared" si="2"/>
+        <v>19848</v>
+      </c>
+      <c r="P182" s="8">
+        <f t="shared" si="2"/>
+        <v>69609</v>
+      </c>
+      <c r="Q182" s="8">
+        <f t="shared" si="2"/>
+        <v>6107</v>
+      </c>
+      <c r="R182" s="8">
+        <f t="shared" si="2"/>
+        <v>3769</v>
+      </c>
+      <c r="S182" s="8">
+        <f t="shared" si="2"/>
+        <v>5775</v>
+      </c>
+      <c r="T182" s="8">
+        <f t="shared" si="2"/>
+        <v>36666</v>
+      </c>
+      <c r="U182" s="8">
+        <f t="shared" si="2"/>
+        <v>38136</v>
+      </c>
+      <c r="V182" s="8">
+        <f t="shared" si="2"/>
+        <v>128378</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:V182"/>
   <sortState ref="A2:V179">
     <sortCondition ref="B2:B179"/>
   </sortState>
@@ -15587,7 +15759,7 @@
     <row r="3" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="21" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -15644,15 +15816,15 @@
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="str">
         <f>B3</f>
-        <v>Елки искусственные</v>
-      </c>
-      <c r="C9" t="str">
+        <v>ИТОГ (без "Наручные часы", "Матрасы" и "Смесители")</v>
+      </c>
+      <c r="C9">
         <f>VLOOKUP($B$9,'Tablib Dataset'!$B:$V,C6,0)</f>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="D9" s="6">
         <f>VLOOKUP($B$9,'Tablib Dataset'!$B:$V,D6,0)</f>
-        <v>2683</v>
+        <v>241498</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -15714,31 +15886,31 @@
       </c>
       <c r="C13" s="16">
         <f>VLOOKUP($B$9,'Tablib Dataset'!$B:$V,C$11,0)</f>
-        <v>652</v>
+        <v>71345</v>
       </c>
       <c r="D13" s="16">
         <f>VLOOKUP($B$9,'Tablib Dataset'!$B:$V,D$11,0)</f>
-        <v>148</v>
+        <v>9653</v>
       </c>
       <c r="E13" s="16">
         <f>VLOOKUP($B$9,'Tablib Dataset'!$B:$V,E$11,0)</f>
-        <v>199</v>
+        <v>12228</v>
       </c>
       <c r="F13" s="16">
         <f>VLOOKUP($B$9,'Tablib Dataset'!$B:$V,F$11,0)</f>
-        <v>336</v>
+        <v>17099</v>
       </c>
       <c r="G13" s="16">
         <f>VLOOKUP($B$9,'Tablib Dataset'!$B:$V,G$11,0)</f>
-        <v>519</v>
+        <v>28682</v>
       </c>
       <c r="H13" s="17">
         <f>VLOOKUP($B$9,'Tablib Dataset'!$B:$V,H$11,0)</f>
-        <v>601</v>
+        <v>54585</v>
       </c>
       <c r="J13" s="22">
         <f>SUM(C13:H13)/$D$9</f>
-        <v>0.91502049944092434</v>
+        <v>0.80162982716212972</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -15748,31 +15920,31 @@
       </c>
       <c r="C14" s="16">
         <f>VLOOKUP($B$9,'Tablib Dataset'!$B:$V,C$11+6,0)</f>
-        <v>91</v>
+        <v>29429</v>
       </c>
       <c r="D14" s="16">
         <f>VLOOKUP($B$9,'Tablib Dataset'!$B:$V,D$11+6,0)</f>
-        <v>36</v>
+        <v>3829</v>
       </c>
       <c r="E14" s="16">
         <f>VLOOKUP($B$9,'Tablib Dataset'!$B:$V,E$11+6,0)</f>
-        <v>53</v>
+        <v>5487</v>
       </c>
       <c r="F14" s="16">
         <f>VLOOKUP($B$9,'Tablib Dataset'!$B:$V,F$11+6,0)</f>
-        <v>80</v>
+        <v>7941</v>
       </c>
       <c r="G14" s="16">
         <f>VLOOKUP($B$9,'Tablib Dataset'!$B:$V,G$11+6,0)</f>
-        <v>112</v>
+        <v>15383</v>
       </c>
       <c r="H14" s="17">
         <f>VLOOKUP($B$9,'Tablib Dataset'!$B:$V,H$11+6,0)</f>
-        <v>432</v>
+        <v>31439</v>
       </c>
       <c r="J14" s="22">
         <f t="shared" ref="J14:J15" si="0">SUM(C14:H14)/$D$9</f>
-        <v>0.2996645546030563</v>
+        <v>0.38719989399498134</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -15782,31 +15954,31 @@
       </c>
       <c r="C15" s="19">
         <f>VLOOKUP($B$9,'Tablib Dataset'!$B:$V,C$11+12,0)</f>
-        <v>91</v>
+        <v>29429</v>
       </c>
       <c r="D15" s="19">
         <f>VLOOKUP($B$9,'Tablib Dataset'!$B:$V,D$11+12,0)</f>
-        <v>36</v>
+        <v>3829</v>
       </c>
       <c r="E15" s="19">
         <f>VLOOKUP($B$9,'Tablib Dataset'!$B:$V,E$11+12,0)</f>
-        <v>53</v>
+        <v>5487</v>
       </c>
       <c r="F15" s="19">
         <f>VLOOKUP($B$9,'Tablib Dataset'!$B:$V,F$11+12,0)</f>
-        <v>796</v>
+        <v>52324</v>
       </c>
       <c r="G15" s="19">
         <f>VLOOKUP($B$9,'Tablib Dataset'!$B:$V,G$11+12,0)</f>
-        <v>559</v>
+        <v>35115</v>
       </c>
       <c r="H15" s="20">
         <f>VLOOKUP($B$9,'Tablib Dataset'!$B:$V,H$11+12,0)</f>
-        <v>920</v>
+        <v>67408</v>
       </c>
       <c r="J15" s="22">
         <f t="shared" si="0"/>
-        <v>0.91502049944092434</v>
+        <v>0.80162982716212972</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -16527,7 +16699,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'Tablib Dataset'!$B$3:$B$180</xm:f>
+            <xm:f>'Tablib Dataset'!$B$3:$B$182</xm:f>
           </x14:formula1>
           <xm:sqref>B3</xm:sqref>
         </x14:dataValidation>
